--- a/por_litro.xlsx
+++ b/por_litro.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,44 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00404040"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00909090"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +86,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,12 +480,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Valor de Venda</t>
         </is>
@@ -451,7 +497,7 @@
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="8" t="n">
         <v>5.375682422141694</v>
       </c>
     </row>
@@ -461,7 +507,7 @@
           <t>DIESEL S10</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="8" t="n">
         <v>5.454900711057374</v>
       </c>
     </row>
@@ -471,7 +517,7 @@
           <t>ETANOL</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="8" t="n">
         <v>5.456115259826604</v>
       </c>
     </row>
@@ -481,7 +527,7 @@
           <t>GASOLINA</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="7" t="n">
         <v>6.708741263711531</v>
       </c>
     </row>
@@ -491,7 +537,7 @@
           <t>GASOLINA ADITIVADA</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="7" t="n">
         <v>6.860421894723554</v>
       </c>
     </row>
@@ -501,7 +547,7 @@
           <t>GNV</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="8" t="n">
         <v>4.392934865900384</v>
       </c>
     </row>
